--- a/biology/Médecine/Seuil_(toxicologie)/Seuil_(toxicologie).xlsx
+++ b/biology/Médecine/Seuil_(toxicologie)/Seuil_(toxicologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En toxicologie (et en écotoxicologie), les seuils toxicologiques sont des limites au-delà desquelles certains effets toxiques sont susceptibles d'apparaître chez les organismes (ou organes) exposés à un ou plusieurs toxiques. 
 Il s'agit aussi parfois de seuils à ne pas dépasser (on parle alors plutôt de normes). 
@@ -514,7 +526,9 @@
           <t>Notion relative</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un seuil toxicologique est seuil indicatif de risque. 
 Il est habituellement relatif aux couples « Concentration » - « Durée d'exposition », éventuellement pondéré par la biodisponibilité, et calculés par produit. 
@@ -556,15 +570,17 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'INERIS a mis au point une « Méthodologie de détermination des seuils des effets létaux, des effets irréversibles, des effets réversibles et de perception » lors d'émission accidentelle d'une substance chimique dans l'atmosphère (adoptée le 20 novembre 2003,  consultable sur le [site Internet de l'INERIS], ainsi (en aout 2004) qu'un rapport intitulé Détermination des Seuils d'Effets Létaux 5 % dans le cadre des réflexions en cours sur les PPRT [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'INERIS a mis au point une « Méthodologie de détermination des seuils des effets létaux, des effets irréversibles, des effets réversibles et de perception » lors d'émission accidentelle d'une substance chimique dans l'atmosphère (adoptée le 20 novembre 2003,  consultable sur le [site Internet de l'INERIS], ainsi (en aout 2004) qu'un rapport intitulé Détermination des Seuils d'Effets Létaux 5 % dans le cadre des réflexions en cours sur les PPRT 
 On parle de :
 seuils des effets létaux  (S.E.L.) ; c'est le seuil audelà duquel survient la mort.
 seuils des effets irréversibles  (S.E.I.), seuil au-delà duquel des lésions  ou séquelles fonctionnelles persistantes apparaîtront durablement, à la suite de l'exposition au toxique
 seuils des effets réversibles ; l'exposition a un effet toxique, mais après l'arrêt de l'exposition au produit, un retour à l'état de santé antérieur est acquis
 seuil de perception (S.P.) ; l'organisme perçoit le produit par au moins l'un de ses cinq sens, en général via le goût ou l'odorat, mais il peut aussi s'agir d'une perception dacidité ou sensation de brûlure (pour l'œil, la peau, les muqueuses.., une sensation d'œdème, une réaction asthmatiforme, etc.
-Des guides spécialisés existent, par exemple sur les valeurs de référence de seuils d'effets des phénomènes accidentels des installations classées[2]
+Des guides spécialisés existent, par exemple sur les valeurs de référence de seuils d'effets des phénomènes accidentels des installations classées
 </t>
         </is>
       </c>
@@ -593,7 +609,9 @@
           <t>Incertitudes, limites, débats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La notion de seuil peut renvoyer à différents débats, dont sur :
 les sous-populations vulnérables ;
@@ -630,7 +648,9 @@
           <t>Calcul des seuils</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont calculés pour un organisme moyen, sur la base d'une  modélisation toxicologique faite par exemple sur la base de données provenant des suicides, d'accidents (au travail ou médicamenteux) et de l'expérimentation animale (rat, souris, lapin, porc, singe..., dont on a montré qu'ils n'étaient pas toujours des modèles parfaits). 
 Depuis peu on teste aussi la toxicité ou l'allergénicité de certaines molécules sur des cultures d'organe, qui ne peuvent pas non plus répondre comme le ferait un organisme réel. 
